--- a/Data_frame/balancos_definitivos/CCXC3.xlsx
+++ b/Data_frame/balancos_definitivos/CCXC3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS80"/>
+  <dimension ref="A1:BC80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,86 +709,6 @@
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2020</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2020</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2020</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2021</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2021</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2021</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2022</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2022</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2022</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>31/12/2022</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2023</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -827,10 +747,10 @@
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>6270575.104</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>6677859.84</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>4743</v>
@@ -957,54 +877,6 @@
       </c>
       <c r="BC2" t="n">
         <v>10669</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>33262088.192</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>33875511.296</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>34926329.856</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>35322355.712</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>33448620.032</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>34498985.984</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>36324712.448</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>39416598.528</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>41356443.648</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>47170973.696</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>47886835.712</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>50239131.648</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>50547298.304</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>50784481.28</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>54690418.688</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>52912173.056</v>
       </c>
     </row>
     <row r="3">
@@ -1044,10 +916,10 @@
         <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1371528.96</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1467378.944</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1174,54 +1046,6 @@
       </c>
       <c r="BC3" t="n">
         <v>10669</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>7131926.016</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>7267769.856</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>8086040.064</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>8754236.415999999</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>8128079.872</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>8237068.8</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>8680040.448000001</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>10890740.736</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>7909455.872</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>9250896.896</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>10805719.04</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>12833426.432</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>12621168.64</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>10914600.96</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>13796174.848</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>11316215.808</v>
       </c>
     </row>
     <row r="4">
@@ -1261,10 +1085,10 @@
         <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>1037870.976</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1071928</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1391,54 +1215,6 @@
       </c>
       <c r="BC4" t="n">
         <v>409</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>1263212.032</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>1231899.008</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>1071723.008</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>2817899.008</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>3548986.88</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>3597691.904</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>3719156.992</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>6572828.16</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>4593600</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>4031727.104</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>3861432.064</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>6302674.944</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>5229072.896</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>4592882.176</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>9154243.584000001</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>6975608.832</v>
       </c>
     </row>
     <row r="5">
@@ -1609,54 +1385,6 @@
       <c r="BC5" t="n">
         <v>0</v>
       </c>
-      <c r="BD5" t="n">
-        <v>3728764.928</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>3826557.952</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>5226251.776</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>4128600.064</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>2658296.064</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>2579271.936</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>2734512.896</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>1684960</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>1185805.056</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>2470351.104</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>2644363.008</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>2421391.104</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>3047640.064</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>2703451.904</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>1140339.968</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>628643.008</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1695,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>180355.008</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>184099.008</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1825,54 +1553,6 @@
       </c>
       <c r="BC6" t="n">
         <v>534</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>1363907.968</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>1469905.024</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>1060124.032</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>1113186.048</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>1213772.032</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>1389286.016</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>1237106.048</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>1432519.04</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>1396635.008</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>2110888.96</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>3612453.888</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>3361516.032</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>3159577.088</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>2367182.08</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>2219279.104</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>2369347.072</v>
       </c>
     </row>
     <row r="7">
@@ -2043,54 +1723,6 @@
       <c r="BC7" t="n">
         <v>0</v>
       </c>
-      <c r="BD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2260,54 +1892,6 @@
       <c r="BC8" t="n">
         <v>0</v>
       </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2477,54 +2061,6 @@
       <c r="BC9" t="n">
         <v>531</v>
       </c>
-      <c r="BD9" t="n">
-        <v>188384.992</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>160687.008</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>182648.992</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>143710</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>185926</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>109389</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>185378</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>178650</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>192816</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>169526</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>179052</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>205688.992</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>316264.992</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>282905.984</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>349014.016</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>390027.008</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2694,54 +2230,6 @@
       <c r="BC10" t="n">
         <v>0</v>
       </c>
-      <c r="BD10" t="n">
-        <v>54557</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>47279</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>46618</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>57642</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>47176</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>65013</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>57650</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>64357</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>65996</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>91667</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>87061</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>69905</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>89794</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>106065</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>90467</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>92240</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2780,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>153303.008</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>211352</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -2910,54 +2398,6 @@
       </c>
       <c r="BC11" t="n">
         <v>9195</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>533099.008</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>531441.9840000001</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>498673.984</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>493199.008</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>473923.008</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>496416.992</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>746236.032</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>957427.008</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>474604</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>376736.992</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>421356.992</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>472249.984</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>778819.968</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>862113.9840000001</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>842830.976</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>860350.0159999999</v>
       </c>
     </row>
     <row r="12">
@@ -2997,10 +2437,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1157080.96</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1405502.976</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -3127,54 +2567,6 @@
       </c>
       <c r="BC12" t="n">
         <v>0</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>6712726.016</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>6732395.008</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>7195814.912</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>7292355.072</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>7051328</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>8114719.744</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>8393101.823999999</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>8493640.192</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>10113696.768</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>9710949.376</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>8601850.880000001</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>8719017.983999999</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>8499042.816</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>9631638.528000001</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>9730184.192</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>9638960.128</v>
       </c>
     </row>
     <row r="13">
@@ -3345,54 +2737,6 @@
       <c r="BC13" t="n">
         <v>0</v>
       </c>
-      <c r="BD13" t="n">
-        <v>44670</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>54984</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>77272</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>79004</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>53570</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>51250</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>70700</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>55450</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>47018</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>54631</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>78557</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>81512</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>68522</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>69449</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>82306</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>83516</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3562,54 +2906,6 @@
       <c r="BC14" t="n">
         <v>0</v>
       </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3648,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>46990</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1295</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -3777,54 +3073,6 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,54 +3244,6 @@
       <c r="BC16" t="n">
         <v>0</v>
       </c>
-      <c r="BD16" t="n">
-        <v>2831364.096</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>2834704.896</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>3305521.92</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>3522658.048</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>3503734.016</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>4590543.872</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>4913649.152</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>4995108.864</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>6537101.824</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>6101683.2</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>4870759.936</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>4852914.176</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>4788298.24</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>5812248.064</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>5693677.056</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>5643232.768</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4213,54 +3413,6 @@
       <c r="BC17" t="n">
         <v>0</v>
       </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>109921</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>129997</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4430,54 +3582,6 @@
       <c r="BC18" t="n">
         <v>0</v>
       </c>
-      <c r="BD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4647,54 +3751,6 @@
       <c r="BC19" t="n">
         <v>0</v>
       </c>
-      <c r="BD19" t="n">
-        <v>835203.968</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>857713.024</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>871918.976</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>879152</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>908803.968</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>911566.0159999999</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>937184</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>866027.008</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>928206.0159999999</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>966140.032</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>984755.968</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>1083382.016</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>964662.976</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>1003052.032</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>1065494.016</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>1143736.96</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4733,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1156</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -4863,54 +3919,6 @@
       </c>
       <c r="BC20" t="n">
         <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>732</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>702</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>671</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>642</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>611</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>646</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>611</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>577</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>541</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>507</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>481</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>441</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>404</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>366</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>331</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>403</v>
       </c>
     </row>
     <row r="21">
@@ -4950,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1108982.016</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1403052.032</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -5080,54 +4088,6 @@
       </c>
       <c r="BC21" t="n">
         <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>191699.008</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>201403.008</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>198632</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>157514</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>188962</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>191496.992</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>183580.992</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>190007.008</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>207300.992</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>205815.008</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>207732</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>229647.008</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>261012.992</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>262684.992</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>272143.008</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>274559.008</v>
       </c>
     </row>
     <row r="22">
@@ -5167,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>63927</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>73599</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>4743</v>
@@ -5297,54 +4257,6 @@
       </c>
       <c r="BC22" t="n">
         <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>740649.024</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>922390.0159999999</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>893612.032</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>881697.9840000001</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>791692.032</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>851856</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>772651.008</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>855228.032</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>848796.032</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>776344</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>874428.992</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>951491.968</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>835881.024</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>1114404.992</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>1058444.032</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>1135661.056</v>
       </c>
     </row>
     <row r="23">
@@ -5384,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>3160200.96</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3224862.976</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -5514,54 +4426,6 @@
       </c>
       <c r="BC23" t="n">
         <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>1169147.008</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>1228242.944</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>1221350.016</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>1209867.008</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>1171478.016</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>1148459.008</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>1097437.056</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>1119699.968</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>1136669.952</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>1093401.984</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>1116619.008</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>1041033.024</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>1038459.008</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>710860.032</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>732329.9840000001</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>788003.968</v>
       </c>
     </row>
     <row r="24">
@@ -5601,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>431555.008</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>421912</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -5731,54 +4595,6 @@
       </c>
       <c r="BC24" t="n">
         <v>0</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>17507639.296</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>17724712.96</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>17529507.84</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>17184200.704</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>16306041.856</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>16146882.56</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>17381480.448</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>18057289.728</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>21347823.616</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>26339379.2</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>26488215.552</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>26694162.432</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>27552747.52</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>28412975.104</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>29373288.448</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>30033332.224</v>
       </c>
     </row>
     <row r="25">
@@ -5818,10 +4634,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>86282</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>84604</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -5947,54 +4763,6 @@
         <v>0</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6035,10 +4803,10 @@
         <v>15</v>
       </c>
       <c r="L26" t="n">
-        <v>6270575.104</v>
+        <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>6677859.84</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>4743</v>
@@ -6165,54 +4933,6 @@
       </c>
       <c r="BC26" t="n">
         <v>10669</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>33262088.192</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>33875511.296</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>34926329.856</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>35322355.712</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>33448620.032</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>34498985.984</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>36324712.448</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>39416598.528</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>41356443.648</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>47170973.696</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>47886835.712</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>50239131.648</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>50547298.304</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>50784481.28</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>54690418.688</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>52912173.056</v>
       </c>
     </row>
     <row r="27">
@@ -6252,10 +4972,10 @@
         <v>12011</v>
       </c>
       <c r="L27" t="n">
-        <v>2303194.88</v>
+        <v>59887</v>
       </c>
       <c r="M27" t="n">
-        <v>2596310.016</v>
+        <v>215</v>
       </c>
       <c r="N27" t="n">
         <v>269</v>
@@ -6382,54 +5102,6 @@
       </c>
       <c r="BC27" t="n">
         <v>63462</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>6519307.776</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>7563319.808</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>7262566.912</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>7924231.168</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>7624208.896</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>7130974.208</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>7117714.944</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>6712407.04</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>5852489.216</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>4688173.056</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>6352320</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>8750381.056</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>10766538.752</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>12823051.264</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>11551816.704</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>10025270.272</v>
       </c>
     </row>
     <row r="28">
@@ -6600,54 +5272,6 @@
       <c r="BC28" t="n">
         <v>99</v>
       </c>
-      <c r="BD28" t="n">
-        <v>303791.008</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>351780</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>290748</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>349003.008</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>261876</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>279627.008</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>270520</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>351926.016</v>
-      </c>
-      <c r="BL28" t="n">
-        <v>370384.992</v>
-      </c>
-      <c r="BM28" t="n">
-        <v>444856.992</v>
-      </c>
-      <c r="BN28" t="n">
-        <v>356340</v>
-      </c>
-      <c r="BO28" t="n">
-        <v>454859.008</v>
-      </c>
-      <c r="BP28" t="n">
-        <v>484964.992</v>
-      </c>
-      <c r="BQ28" t="n">
-        <v>545001.024</v>
-      </c>
-      <c r="BR28" t="n">
-        <v>414576.992</v>
-      </c>
-      <c r="BS28" t="n">
-        <v>513172.992</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6686,10 +5310,10 @@
         <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>159624.992</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>120931</v>
+        <v>10</v>
       </c>
       <c r="N29" t="n">
         <v>11</v>
@@ -6816,54 +5440,6 @@
       </c>
       <c r="BC29" t="n">
         <v>6320</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>457304</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>442279.008</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>410214.016</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>495832.992</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>607768</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>510699.008</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>531776</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>523155.008</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>514516.992</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>438185.984</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>449212.992</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>501711.008</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>771347.008</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>543163.008</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>583297.9840000001</v>
-      </c>
-      <c r="BS29" t="n">
-        <v>654662.0159999999</v>
       </c>
     </row>
     <row r="30">
@@ -6903,10 +5479,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>106682</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>58658</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -7033,54 +5609,6 @@
       </c>
       <c r="BC30" t="n">
         <v>1169</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>430215.008</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>249348.992</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>341208.992</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>390924.992</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>437507.008</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>286531.008</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>250460</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>357416</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>392112.992</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>362446.016</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>528448</v>
-      </c>
-      <c r="BO30" t="n">
-        <v>828172.992</v>
-      </c>
-      <c r="BP30" t="n">
-        <v>829235.008</v>
-      </c>
-      <c r="BQ30" t="n">
-        <v>556441.9840000001</v>
-      </c>
-      <c r="BR30" t="n">
-        <v>561550.976</v>
-      </c>
-      <c r="BS30" t="n">
-        <v>643630.0159999999</v>
       </c>
     </row>
     <row r="31">
@@ -7120,10 +5648,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1762598.016</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2016121.984</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -7250,54 +5778,6 @@
       </c>
       <c r="BC31" t="n">
         <v>0</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>4050042.88</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>5206087.168</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>4826064.896</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>4902022.144</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>5056804.864</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>4836452.864</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>3622067.968</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>4089149.952</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>3484915.968</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>2310106.88</v>
-      </c>
-      <c r="BN31" t="n">
-        <v>3898521.088</v>
-      </c>
-      <c r="BO31" t="n">
-        <v>5802079.232</v>
-      </c>
-      <c r="BP31" t="n">
-        <v>7312188.928</v>
-      </c>
-      <c r="BQ31" t="n">
-        <v>9804233.728</v>
-      </c>
-      <c r="BR31" t="n">
-        <v>8782718.976</v>
-      </c>
-      <c r="BS31" t="n">
-        <v>7028408.832</v>
       </c>
     </row>
     <row r="32">
@@ -7337,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>56204</v>
+        <v>204</v>
       </c>
       <c r="M32" t="n">
-        <v>44840</v>
+        <v>204</v>
       </c>
       <c r="N32" t="n">
         <v>249</v>
@@ -7467,54 +5947,6 @@
       </c>
       <c r="BC32" t="n">
         <v>46223</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>415940</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>430703.008</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>431292.992</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>410364.992</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>438259.008</v>
-      </c>
-      <c r="BI32" t="n">
-        <v>407547.008</v>
-      </c>
-      <c r="BJ32" t="n">
-        <v>409320.992</v>
-      </c>
-      <c r="BK32" t="n">
-        <v>401646.016</v>
-      </c>
-      <c r="BL32" t="n">
-        <v>406115.008</v>
-      </c>
-      <c r="BM32" t="n">
-        <v>423940</v>
-      </c>
-      <c r="BN32" t="n">
-        <v>386108.992</v>
-      </c>
-      <c r="BO32" t="n">
-        <v>397867.008</v>
-      </c>
-      <c r="BP32" t="n">
-        <v>283451.008</v>
-      </c>
-      <c r="BQ32" t="n">
-        <v>288683.008</v>
-      </c>
-      <c r="BR32" t="n">
-        <v>311687.008</v>
-      </c>
-      <c r="BS32" t="n">
-        <v>170598</v>
       </c>
     </row>
     <row r="33">
@@ -7554,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>143506</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>143506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -7684,54 +6116,6 @@
       </c>
       <c r="BC33" t="n">
         <v>0</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>804</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>1508</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>1697</v>
-      </c>
-      <c r="BG33" t="n">
-        <v>374953.984</v>
-      </c>
-      <c r="BH33" t="n">
-        <v>47189</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>47908</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>4367</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>7845</v>
-      </c>
-      <c r="BL33" t="n">
-        <v>72921</v>
-      </c>
-      <c r="BM33" t="n">
-        <v>73388</v>
-      </c>
-      <c r="BN33" t="n">
-        <v>62936</v>
-      </c>
-      <c r="BO33" t="n">
-        <v>64189</v>
-      </c>
-      <c r="BP33" t="n">
-        <v>141244.992</v>
-      </c>
-      <c r="BQ33" t="n">
-        <v>142300.992</v>
-      </c>
-      <c r="BR33" t="n">
-        <v>56763</v>
-      </c>
-      <c r="BS33" t="n">
-        <v>57743</v>
       </c>
     </row>
     <row r="34">
@@ -7771,10 +6155,10 @@
         <v>204</v>
       </c>
       <c r="L34" t="n">
-        <v>47157</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>111456</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>9</v>
@@ -7901,54 +6285,6 @@
       </c>
       <c r="BC34" t="n">
         <v>92</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>735386.976</v>
-      </c>
-      <c r="BE34" t="n">
-        <v>770933.024</v>
-      </c>
-      <c r="BF34" t="n">
-        <v>854488.024</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>886642.048</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>623438.968</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>601386.0159999999</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>1975130.984</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>940156.9840000001</v>
-      </c>
-      <c r="BL34" t="n">
-        <v>575506.008</v>
-      </c>
-      <c r="BM34" t="n">
-        <v>599333.9840000001</v>
-      </c>
-      <c r="BN34" t="n">
-        <v>632230.976</v>
-      </c>
-      <c r="BO34" t="n">
-        <v>662094.008</v>
-      </c>
-      <c r="BP34" t="n">
-        <v>692422.976</v>
-      </c>
-      <c r="BQ34" t="n">
-        <v>703432</v>
-      </c>
-      <c r="BR34" t="n">
-        <v>660251.0159999999</v>
-      </c>
-      <c r="BS34" t="n">
-        <v>746676.968</v>
       </c>
     </row>
     <row r="35">
@@ -7988,10 +6324,10 @@
         <v>11800</v>
       </c>
       <c r="L35" t="n">
-        <v>27423</v>
+        <v>59677</v>
       </c>
       <c r="M35" t="n">
-        <v>100797</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -8118,54 +6454,6 @@
       </c>
       <c r="BC35" t="n">
         <v>0</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>125824</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>110681</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>106853</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>114487</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>151366</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>160823.008</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>54072</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>41112</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>35682</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>34899</v>
-      </c>
-      <c r="BN35" t="n">
-        <v>38423</v>
-      </c>
-      <c r="BO35" t="n">
-        <v>39409</v>
-      </c>
-      <c r="BP35" t="n">
-        <v>65092</v>
-      </c>
-      <c r="BQ35" t="n">
-        <v>239795.008</v>
-      </c>
-      <c r="BR35" t="n">
-        <v>64980</v>
-      </c>
-      <c r="BS35" t="n">
-        <v>94033</v>
       </c>
     </row>
     <row r="36">
@@ -8336,54 +6624,6 @@
       <c r="BC36" t="n">
         <v>9559</v>
       </c>
-      <c r="BD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL36" t="n">
-        <v>334</v>
-      </c>
-      <c r="BM36" t="n">
-        <v>1016</v>
-      </c>
-      <c r="BN36" t="n">
-        <v>99</v>
-      </c>
-      <c r="BO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP36" t="n">
-        <v>186592</v>
-      </c>
-      <c r="BQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR36" t="n">
-        <v>115991</v>
-      </c>
-      <c r="BS36" t="n">
-        <v>116345</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8422,10 +6662,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2363772.928</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2320477.952</v>
+        <v>19510</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -8552,54 +6792,6 @@
       </c>
       <c r="BC37" t="n">
         <v>0</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>18303084.544</v>
-      </c>
-      <c r="BE37" t="n">
-        <v>17222019.072</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>19235508.224</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>19194044.416</v>
-      </c>
-      <c r="BH37" t="n">
-        <v>17884647.424</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>18424743.936</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>20655523.84</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>23811088.384</v>
-      </c>
-      <c r="BL37" t="n">
-        <v>26938155.008</v>
-      </c>
-      <c r="BM37" t="n">
-        <v>30767568.896</v>
-      </c>
-      <c r="BN37" t="n">
-        <v>29529266.176</v>
-      </c>
-      <c r="BO37" t="n">
-        <v>28817016.832</v>
-      </c>
-      <c r="BP37" t="n">
-        <v>27958011.904</v>
-      </c>
-      <c r="BQ37" t="n">
-        <v>25506689.024</v>
-      </c>
-      <c r="BR37" t="n">
-        <v>30474172.416</v>
-      </c>
-      <c r="BS37" t="n">
-        <v>29727039.488</v>
       </c>
     </row>
     <row r="38">
@@ -8639,10 +6831,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1960259.968</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1919673.024</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -8769,54 +6961,6 @@
       </c>
       <c r="BC38" t="n">
         <v>0</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>14980795.392</v>
-      </c>
-      <c r="BE38" t="n">
-        <v>13774540.8</v>
-      </c>
-      <c r="BF38" t="n">
-        <v>15955744.768</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>16002966.528</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>14847177.728</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>14825390.08</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>17010895.872</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>20225808.384</v>
-      </c>
-      <c r="BL38" t="n">
-        <v>23266232.32</v>
-      </c>
-      <c r="BM38" t="n">
-        <v>25106708.48</v>
-      </c>
-      <c r="BN38" t="n">
-        <v>23647543.296</v>
-      </c>
-      <c r="BO38" t="n">
-        <v>23300605.952</v>
-      </c>
-      <c r="BP38" t="n">
-        <v>21719064.576</v>
-      </c>
-      <c r="BQ38" t="n">
-        <v>19063119.872</v>
-      </c>
-      <c r="BR38" t="n">
-        <v>23951650.816</v>
-      </c>
-      <c r="BS38" t="n">
-        <v>23230519.296</v>
       </c>
     </row>
     <row r="39">
@@ -8856,10 +7000,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>10633</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>10633</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -8986,54 +7130,6 @@
       </c>
       <c r="BC39" t="n">
         <v>0</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>148478</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>200680</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>154804</v>
-      </c>
-      <c r="BG39" t="n">
-        <v>155863.008</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>140491.008</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>143744</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>163891.008</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>113984</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>112081</v>
-      </c>
-      <c r="BM39" t="n">
-        <v>141419.008</v>
-      </c>
-      <c r="BN39" t="n">
-        <v>122402</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>118477</v>
-      </c>
-      <c r="BP39" t="n">
-        <v>80837</v>
-      </c>
-      <c r="BQ39" t="n">
-        <v>85760</v>
-      </c>
-      <c r="BR39" t="n">
-        <v>89297</v>
-      </c>
-      <c r="BS39" t="n">
-        <v>43943</v>
       </c>
     </row>
     <row r="40">
@@ -9073,10 +7169,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>14006</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>13150</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -9203,54 +7299,6 @@
       </c>
       <c r="BC40" t="n">
         <v>0</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>2225520.896</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>2260833.024</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>2108241.024</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>2016219.008</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>1979630.976</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>2174426.88</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>2165687.04</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>2149699.072</v>
-      </c>
-      <c r="BL40" t="n">
-        <v>2145484.032</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>2189400.064</v>
-      </c>
-      <c r="BN40" t="n">
-        <v>2310039.04</v>
-      </c>
-      <c r="BO40" t="n">
-        <v>2251717.12</v>
-      </c>
-      <c r="BP40" t="n">
-        <v>2977026.048</v>
-      </c>
-      <c r="BQ40" t="n">
-        <v>3088378.112</v>
-      </c>
-      <c r="BR40" t="n">
-        <v>3141652.992</v>
-      </c>
-      <c r="BS40" t="n">
-        <v>3246680.064</v>
       </c>
     </row>
     <row r="41">
@@ -9421,54 +7469,6 @@
       <c r="BC41" t="n">
         <v>0</v>
       </c>
-      <c r="BD41" t="n">
-        <v>561160</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>585664</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>572739.008</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>568878.976</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>511646.016</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>867422.976</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>870419.968</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>887382.976</v>
-      </c>
-      <c r="BL41" t="n">
-        <v>918806.976</v>
-      </c>
-      <c r="BM41" t="n">
-        <v>2780620.032</v>
-      </c>
-      <c r="BN41" t="n">
-        <v>2792878.08</v>
-      </c>
-      <c r="BO41" t="n">
-        <v>2651259.904</v>
-      </c>
-      <c r="BP41" t="n">
-        <v>2505363.968</v>
-      </c>
-      <c r="BQ41" t="n">
-        <v>2483968</v>
-      </c>
-      <c r="BR41" t="n">
-        <v>2465440</v>
-      </c>
-      <c r="BS41" t="n">
-        <v>2420079.104</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9638,54 +7638,6 @@
       <c r="BC42" t="n">
         <v>0</v>
       </c>
-      <c r="BD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9724,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>378873.984</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>377022.016</v>
+        <v>19510</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -9854,54 +7806,6 @@
       </c>
       <c r="BC43" t="n">
         <v>0</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>387131.008</v>
-      </c>
-      <c r="BE43" t="n">
-        <v>400303.008</v>
-      </c>
-      <c r="BF43" t="n">
-        <v>443980</v>
-      </c>
-      <c r="BG43" t="n">
-        <v>450116.992</v>
-      </c>
-      <c r="BH43" t="n">
-        <v>405703.008</v>
-      </c>
-      <c r="BI43" t="n">
-        <v>413760</v>
-      </c>
-      <c r="BJ43" t="n">
-        <v>444628.992</v>
-      </c>
-      <c r="BK43" t="n">
-        <v>434212</v>
-      </c>
-      <c r="BL43" t="n">
-        <v>495550.016</v>
-      </c>
-      <c r="BM43" t="n">
-        <v>549420.992</v>
-      </c>
-      <c r="BN43" t="n">
-        <v>656403.968</v>
-      </c>
-      <c r="BO43" t="n">
-        <v>494956</v>
-      </c>
-      <c r="BP43" t="n">
-        <v>675718.976</v>
-      </c>
-      <c r="BQ43" t="n">
-        <v>785462.976</v>
-      </c>
-      <c r="BR43" t="n">
-        <v>826131.008</v>
-      </c>
-      <c r="BS43" t="n">
-        <v>785817.024</v>
       </c>
     </row>
     <row r="44">
@@ -10072,54 +7976,6 @@
       <c r="BC44" t="n">
         <v>0</v>
       </c>
-      <c r="BD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10289,54 +8145,6 @@
       <c r="BC45" t="n">
         <v>0</v>
       </c>
-      <c r="BD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10375,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25080</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>26717</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -10505,54 +8313,6 @@
       </c>
       <c r="BC46" t="n">
         <v>-94</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>300905.984</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>219652</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>194880.992</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>204380.992</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>198599.008</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>366684.992</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>344303.008</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>370118.016</v>
-      </c>
-      <c r="BL46" t="n">
-        <v>301038.016</v>
-      </c>
-      <c r="BM46" t="n">
-        <v>236368.992</v>
-      </c>
-      <c r="BN46" t="n">
-        <v>312992.992</v>
-      </c>
-      <c r="BO46" t="n">
-        <v>337456</v>
-      </c>
-      <c r="BP46" t="n">
-        <v>358187.008</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>395852.992</v>
-      </c>
-      <c r="BR46" t="n">
-        <v>440792.992</v>
-      </c>
-      <c r="BS46" t="n">
-        <v>482798.016</v>
       </c>
     </row>
     <row r="47">
@@ -10592,10 +8352,10 @@
         <v>-11996</v>
       </c>
       <c r="L47" t="n">
-        <v>1578526.976</v>
+        <v>-59880</v>
       </c>
       <c r="M47" t="n">
-        <v>1734354.944</v>
+        <v>-19724</v>
       </c>
       <c r="N47" t="n">
         <v>4474</v>
@@ -10722,54 +8482,6 @@
       </c>
       <c r="BC47" t="n">
         <v>-52699</v>
-      </c>
-      <c r="BD47" t="n">
-        <v>8138787.839999999</v>
-      </c>
-      <c r="BE47" t="n">
-        <v>8870517.856000001</v>
-      </c>
-      <c r="BF47" t="n">
-        <v>8233369.12</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>7999700.16</v>
-      </c>
-      <c r="BH47" t="n">
-        <v>7741163.168</v>
-      </c>
-      <c r="BI47" t="n">
-        <v>8576583.872</v>
-      </c>
-      <c r="BJ47" t="n">
-        <v>8207169.12</v>
-      </c>
-      <c r="BK47" t="n">
-        <v>8522987.136</v>
-      </c>
-      <c r="BL47" t="n">
-        <v>8264761.920000001</v>
-      </c>
-      <c r="BM47" t="n">
-        <v>11478862.752</v>
-      </c>
-      <c r="BN47" t="n">
-        <v>11692256.032</v>
-      </c>
-      <c r="BO47" t="n">
-        <v>12334277.76</v>
-      </c>
-      <c r="BP47" t="n">
-        <v>11464562.688</v>
-      </c>
-      <c r="BQ47" t="n">
-        <v>12058890.048</v>
-      </c>
-      <c r="BR47" t="n">
-        <v>12223639.648</v>
-      </c>
-      <c r="BS47" t="n">
-        <v>12677064.256</v>
       </c>
     </row>
     <row r="48">
@@ -10809,10 +8521,10 @@
         <v>83449</v>
       </c>
       <c r="L48" t="n">
-        <v>791761.024</v>
+        <v>117949</v>
       </c>
       <c r="M48" t="n">
-        <v>791761.024</v>
+        <v>167328.992</v>
       </c>
       <c r="N48" t="n">
         <v>200228.992</v>
@@ -10939,54 +8651,6 @@
       </c>
       <c r="BC48" t="n">
         <v>742187.008</v>
-      </c>
-      <c r="BD48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BE48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BF48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BL48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BM48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BN48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BO48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BP48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BQ48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BR48" t="n">
-        <v>6022942.208</v>
-      </c>
-      <c r="BS48" t="n">
-        <v>6022942.208</v>
       </c>
     </row>
     <row r="49">
@@ -11157,54 +8821,6 @@
       <c r="BC49" t="n">
         <v>0</v>
       </c>
-      <c r="BD49" t="n">
-        <v>6988</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>30226</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>33973</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>1860</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>694</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>-5616</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>14194</v>
-      </c>
-      <c r="BK49" t="n">
-        <v>15957</v>
-      </c>
-      <c r="BL49" t="n">
-        <v>15934</v>
-      </c>
-      <c r="BM49" t="n">
-        <v>21955</v>
-      </c>
-      <c r="BN49" t="n">
-        <v>-35274</v>
-      </c>
-      <c r="BO49" t="n">
-        <v>-35711</v>
-      </c>
-      <c r="BP49" t="n">
-        <v>141123.008</v>
-      </c>
-      <c r="BQ49" t="n">
-        <v>141123.008</v>
-      </c>
-      <c r="BR49" t="n">
-        <v>109113</v>
-      </c>
-      <c r="BS49" t="n">
-        <v>255182</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11374,54 +8990,6 @@
       <c r="BC50" t="n">
         <v>0</v>
       </c>
-      <c r="BD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11460,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>789265.024</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>789265.024</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -11590,54 +9158,6 @@
       </c>
       <c r="BC51" t="n">
         <v>0</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>1584651.008</v>
-      </c>
-      <c r="BE51" t="n">
-        <v>1584651.008</v>
-      </c>
-      <c r="BF51" t="n">
-        <v>984651.008</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>611408</v>
-      </c>
-      <c r="BH51" t="n">
-        <v>757070.0159999999</v>
-      </c>
-      <c r="BI51" t="n">
-        <v>757062.0159999999</v>
-      </c>
-      <c r="BJ51" t="n">
-        <v>620960</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>620960</v>
-      </c>
-      <c r="BL51" t="n">
-        <v>1151378.048</v>
-      </c>
-      <c r="BM51" t="n">
-        <v>1151378.048</v>
-      </c>
-      <c r="BN51" t="n">
-        <v>986166.0159999999</v>
-      </c>
-      <c r="BO51" t="n">
-        <v>986166.0159999999</v>
-      </c>
-      <c r="BP51" t="n">
-        <v>4453842.944</v>
-      </c>
-      <c r="BQ51" t="n">
-        <v>4453842.944</v>
-      </c>
-      <c r="BR51" t="n">
-        <v>4453842.944</v>
-      </c>
-      <c r="BS51" t="n">
-        <v>4453842.944</v>
       </c>
     </row>
     <row r="52">
@@ -11677,10 +9197,10 @@
         <v>-95445</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>-177828.992</v>
       </c>
       <c r="M52" t="n">
-        <v>155940.992</v>
+        <v>-187052.992</v>
       </c>
       <c r="N52" t="n">
         <v>-195755.008</v>
@@ -11807,54 +9327,6 @@
       </c>
       <c r="BC52" t="n">
         <v>-957630.0159999999</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>289681.984</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>147555.008</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>265850</v>
-      </c>
-      <c r="BH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI52" t="n">
-        <v>688940.032</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>644900.992</v>
-      </c>
-      <c r="BK52" t="n">
-        <v>828814.0159999999</v>
-      </c>
-      <c r="BL52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM52" t="n">
-        <v>3452473.088</v>
-      </c>
-      <c r="BN52" t="n">
-        <v>3743742.976</v>
-      </c>
-      <c r="BO52" t="n">
-        <v>4350195.2</v>
-      </c>
-      <c r="BP52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ52" t="n">
-        <v>629329.024</v>
-      </c>
-      <c r="BR52" t="n">
-        <v>899542.976</v>
-      </c>
-      <c r="BS52" t="n">
-        <v>1151074.944</v>
       </c>
     </row>
     <row r="53">
@@ -11894,10 +9366,10 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-2499</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>-2612</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -12023,54 +9495,6 @@
         <v>0</v>
       </c>
       <c r="BC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12242,54 +9666,6 @@
       <c r="BC54" t="n">
         <v>162744</v>
       </c>
-      <c r="BD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12459,54 +9835,6 @@
       <c r="BC55" t="n">
         <v>0</v>
       </c>
-      <c r="BD55" t="n">
-        <v>524207.008</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>943017.024</v>
-      </c>
-      <c r="BF55" t="n">
-        <v>1044248</v>
-      </c>
-      <c r="BG55" t="n">
-        <v>1097639.936</v>
-      </c>
-      <c r="BH55" t="n">
-        <v>960457.024</v>
-      </c>
-      <c r="BI55" t="n">
-        <v>1113255.936</v>
-      </c>
-      <c r="BJ55" t="n">
-        <v>904172.032</v>
-      </c>
-      <c r="BK55" t="n">
-        <v>1034313.984</v>
-      </c>
-      <c r="BL55" t="n">
-        <v>1074508.032</v>
-      </c>
-      <c r="BM55" t="n">
-        <v>830115.008</v>
-      </c>
-      <c r="BN55" t="n">
-        <v>974678.976</v>
-      </c>
-      <c r="BO55" t="n">
-        <v>1010686.016</v>
-      </c>
-      <c r="BP55" t="n">
-        <v>846654.976</v>
-      </c>
-      <c r="BQ55" t="n">
-        <v>811652.992</v>
-      </c>
-      <c r="BR55" t="n">
-        <v>738198.976</v>
-      </c>
-      <c r="BS55" t="n">
-        <v>794022.0159999999</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12676,54 +10004,6 @@
       <c r="BC56" t="n">
         <v>0</v>
       </c>
-      <c r="BD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12760,10 +10040,10 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>774414.0159999999</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>810924.992</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -12891,22 +10171,6 @@
       <c r="BC57" t="n">
         <v>0</v>
       </c>
-      <c r="BD57" t="inlineStr"/>
-      <c r="BE57" t="inlineStr"/>
-      <c r="BF57" t="inlineStr"/>
-      <c r="BG57" t="inlineStr"/>
-      <c r="BH57" t="inlineStr"/>
-      <c r="BI57" t="inlineStr"/>
-      <c r="BJ57" t="inlineStr"/>
-      <c r="BK57" t="inlineStr"/>
-      <c r="BL57" t="inlineStr"/>
-      <c r="BM57" t="inlineStr"/>
-      <c r="BN57" t="inlineStr"/>
-      <c r="BO57" t="inlineStr"/>
-      <c r="BP57" t="inlineStr"/>
-      <c r="BQ57" t="inlineStr"/>
-      <c r="BR57" t="inlineStr"/>
-      <c r="BS57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12943,10 +10207,10 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>-58452</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>-74092</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -13074,22 +10338,6 @@
       <c r="BC58" t="n">
         <v>0</v>
       </c>
-      <c r="BD58" t="inlineStr"/>
-      <c r="BE58" t="inlineStr"/>
-      <c r="BF58" t="inlineStr"/>
-      <c r="BG58" t="inlineStr"/>
-      <c r="BH58" t="inlineStr"/>
-      <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr"/>
-      <c r="BK58" t="inlineStr"/>
-      <c r="BL58" t="inlineStr"/>
-      <c r="BM58" t="inlineStr"/>
-      <c r="BN58" t="inlineStr"/>
-      <c r="BO58" t="inlineStr"/>
-      <c r="BP58" t="inlineStr"/>
-      <c r="BQ58" t="inlineStr"/>
-      <c r="BR58" t="inlineStr"/>
-      <c r="BS58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13126,10 +10374,10 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>715961.9840000001</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>736833.024</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -13256,54 +10504,6 @@
       </c>
       <c r="BC59" t="n">
         <v>0</v>
-      </c>
-      <c r="BD59" t="n">
-        <v>2642153.984</v>
-      </c>
-      <c r="BE59" t="n">
-        <v>1992242.944</v>
-      </c>
-      <c r="BF59" t="n">
-        <v>2381317.888</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>2873764.864</v>
-      </c>
-      <c r="BH59" t="n">
-        <v>3708081.92</v>
-      </c>
-      <c r="BI59" t="n">
-        <v>2578877.952</v>
-      </c>
-      <c r="BJ59" t="n">
-        <v>2843311.104</v>
-      </c>
-      <c r="BK59" t="n">
-        <v>3113975.552</v>
-      </c>
-      <c r="BL59" t="n">
-        <v>8263175.168</v>
-      </c>
-      <c r="BM59" t="n">
-        <v>3416720.896</v>
-      </c>
-      <c r="BN59" t="n">
-        <v>3652229.888</v>
-      </c>
-      <c r="BO59" t="n">
-        <v>3849566.976</v>
-      </c>
-      <c r="BP59" t="n">
-        <v>4386850.816</v>
-      </c>
-      <c r="BQ59" t="n">
-        <v>3905136.896</v>
-      </c>
-      <c r="BR59" t="n">
-        <v>4426169.856</v>
-      </c>
-      <c r="BS59" t="n">
-        <v>6214565.888</v>
       </c>
     </row>
     <row r="60">
@@ -13341,10 +10541,10 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-299935.008</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>-302808.992</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -13471,54 +10671,6 @@
       </c>
       <c r="BC60" t="n">
         <v>0</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>-1582637.056</v>
-      </c>
-      <c r="BE60" t="n">
-        <v>-1576461.952</v>
-      </c>
-      <c r="BF60" t="n">
-        <v>-1573736.96</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>-1730600.832</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>-1726043.008</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>-2087041.024</v>
-      </c>
-      <c r="BJ60" t="n">
-        <v>-1785339.008</v>
-      </c>
-      <c r="BK60" t="n">
-        <v>-2003176.96</v>
-      </c>
-      <c r="BL60" t="n">
-        <v>-1582260.992</v>
-      </c>
-      <c r="BM60" t="n">
-        <v>-1768797.056</v>
-      </c>
-      <c r="BN60" t="n">
-        <v>-2172066.048</v>
-      </c>
-      <c r="BO60" t="n">
-        <v>-2462477.824</v>
-      </c>
-      <c r="BP60" t="n">
-        <v>-2073945.984</v>
-      </c>
-      <c r="BQ60" t="n">
-        <v>-2211805.952</v>
-      </c>
-      <c r="BR60" t="n">
-        <v>-2704812.032</v>
-      </c>
-      <c r="BS60" t="n">
-        <v>-3822899.712</v>
       </c>
     </row>
     <row r="61">
@@ -13556,10 +10708,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>416027.008</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>434024</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -13686,54 +10838,6 @@
       </c>
       <c r="BC61" t="n">
         <v>0</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>1059516.992</v>
-      </c>
-      <c r="BE61" t="n">
-        <v>415780.992</v>
-      </c>
-      <c r="BF61" t="n">
-        <v>807580.992</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>1143163.904</v>
-      </c>
-      <c r="BH61" t="n">
-        <v>1982039.04</v>
-      </c>
-      <c r="BI61" t="n">
-        <v>491836.992</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>1057971.968</v>
-      </c>
-      <c r="BK61" t="n">
-        <v>1110799.104</v>
-      </c>
-      <c r="BL61" t="n">
-        <v>6680913.92</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>1647923.968</v>
-      </c>
-      <c r="BN61" t="n">
-        <v>1480163.968</v>
-      </c>
-      <c r="BO61" t="n">
-        <v>1387087.488</v>
-      </c>
-      <c r="BP61" t="n">
-        <v>2312904.96</v>
-      </c>
-      <c r="BQ61" t="n">
-        <v>1693330.944</v>
-      </c>
-      <c r="BR61" t="n">
-        <v>1721357.952</v>
-      </c>
-      <c r="BS61" t="n">
-        <v>2391667.2</v>
       </c>
     </row>
     <row r="62">
@@ -13902,54 +11006,6 @@
       <c r="BC62" t="n">
         <v>0</v>
       </c>
-      <c r="BD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13986,10 +11042,10 @@
         <v>-4</v>
       </c>
       <c r="L63" t="n">
-        <v>-61328</v>
+        <v>-6</v>
       </c>
       <c r="M63" t="n">
-        <v>-77407</v>
+        <v>-11</v>
       </c>
       <c r="N63" t="n">
         <v>-54</v>
@@ -14116,54 +11172,6 @@
       </c>
       <c r="BC63" t="n">
         <v>-750</v>
-      </c>
-      <c r="BD63" t="n">
-        <v>-213372</v>
-      </c>
-      <c r="BE63" t="n">
-        <v>-251750</v>
-      </c>
-      <c r="BF63" t="n">
-        <v>-226094</v>
-      </c>
-      <c r="BG63" t="n">
-        <v>-663688.96</v>
-      </c>
-      <c r="BH63" t="n">
-        <v>-257432.992</v>
-      </c>
-      <c r="BI63" t="n">
-        <v>-232844.992</v>
-      </c>
-      <c r="BJ63" t="n">
-        <v>-185618</v>
-      </c>
-      <c r="BK63" t="n">
-        <v>-408611.008</v>
-      </c>
-      <c r="BL63" t="n">
-        <v>-280012.992</v>
-      </c>
-      <c r="BM63" t="n">
-        <v>-415505.984</v>
-      </c>
-      <c r="BN63" t="n">
-        <v>-428779.008</v>
-      </c>
-      <c r="BO63" t="n">
-        <v>-213726.976</v>
-      </c>
-      <c r="BP63" t="n">
-        <v>-522742.016</v>
-      </c>
-      <c r="BQ63" t="n">
-        <v>-425550.016</v>
-      </c>
-      <c r="BR63" t="n">
-        <v>-522478.016</v>
-      </c>
-      <c r="BS63" t="n">
-        <v>-604078.976</v>
       </c>
     </row>
     <row r="64">
@@ -14310,54 +11318,6 @@
       <c r="BC64" t="n">
         <v>0</v>
       </c>
-      <c r="BD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14394,10 +11354,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1082</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>4912</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -14524,54 +11484,6 @@
       </c>
       <c r="BC65" t="n">
         <v>0</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>4066</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>16664</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>58178</v>
-      </c>
-      <c r="BG65" t="n">
-        <v>-78908</v>
-      </c>
-      <c r="BH65" t="n">
-        <v>45868</v>
-      </c>
-      <c r="BI65" t="n">
-        <v>62005</v>
-      </c>
-      <c r="BJ65" t="n">
-        <v>8806</v>
-      </c>
-      <c r="BK65" t="n">
-        <v>-116679</v>
-      </c>
-      <c r="BL65" t="n">
-        <v>-3454</v>
-      </c>
-      <c r="BM65" t="n">
-        <v>50080</v>
-      </c>
-      <c r="BN65" t="n">
-        <v>509587.008</v>
-      </c>
-      <c r="BO65" t="n">
-        <v>-556212.992</v>
-      </c>
-      <c r="BP65" t="n">
-        <v>3570</v>
-      </c>
-      <c r="BQ65" t="n">
-        <v>2706</v>
-      </c>
-      <c r="BR65" t="n">
-        <v>6991</v>
-      </c>
-      <c r="BS65" t="n">
-        <v>-13267</v>
       </c>
     </row>
     <row r="66">
@@ -14609,10 +11521,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-10126</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>-9473</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -14739,54 +11651,6 @@
       </c>
       <c r="BC66" t="n">
         <v>0</v>
-      </c>
-      <c r="BD66" t="n">
-        <v>-12045</v>
-      </c>
-      <c r="BE66" t="n">
-        <v>-3583</v>
-      </c>
-      <c r="BF66" t="n">
-        <v>-8820</v>
-      </c>
-      <c r="BG66" t="n">
-        <v>24448</v>
-      </c>
-      <c r="BH66" t="n">
-        <v>-4769</v>
-      </c>
-      <c r="BI66" t="n">
-        <v>-5402</v>
-      </c>
-      <c r="BJ66" t="n">
-        <v>-4971</v>
-      </c>
-      <c r="BK66" t="n">
-        <v>15142</v>
-      </c>
-      <c r="BL66" t="n">
-        <v>-1324</v>
-      </c>
-      <c r="BM66" t="n">
-        <v>-1232</v>
-      </c>
-      <c r="BN66" t="n">
-        <v>-3809</v>
-      </c>
-      <c r="BO66" t="n">
-        <v>6365</v>
-      </c>
-      <c r="BP66" t="n">
-        <v>-16695</v>
-      </c>
-      <c r="BQ66" t="n">
-        <v>-2369</v>
-      </c>
-      <c r="BR66" t="n">
-        <v>-4045</v>
-      </c>
-      <c r="BS66" t="n">
-        <v>23109</v>
       </c>
     </row>
     <row r="67">
@@ -14824,10 +11688,10 @@
         <v>-58572</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>-82378</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>-9213</v>
       </c>
       <c r="N67" t="n">
         <v>-8648</v>
@@ -14954,54 +11818,6 @@
       </c>
       <c r="BC67" t="n">
         <v>0</v>
-      </c>
-      <c r="BD67" t="n">
-        <v>24537</v>
-      </c>
-      <c r="BE67" t="n">
-        <v>-40872</v>
-      </c>
-      <c r="BF67" t="n">
-        <v>-22658</v>
-      </c>
-      <c r="BG67" t="n">
-        <v>2708</v>
-      </c>
-      <c r="BH67" t="n">
-        <v>5973</v>
-      </c>
-      <c r="BI67" t="n">
-        <v>15918</v>
-      </c>
-      <c r="BJ67" t="n">
-        <v>31384</v>
-      </c>
-      <c r="BK67" t="n">
-        <v>31586</v>
-      </c>
-      <c r="BL67" t="n">
-        <v>30438</v>
-      </c>
-      <c r="BM67" t="n">
-        <v>52831</v>
-      </c>
-      <c r="BN67" t="n">
-        <v>138723.008</v>
-      </c>
-      <c r="BO67" t="n">
-        <v>32120.984</v>
-      </c>
-      <c r="BP67" t="n">
-        <v>25311</v>
-      </c>
-      <c r="BQ67" t="n">
-        <v>45756</v>
-      </c>
-      <c r="BR67" t="n">
-        <v>59342</v>
-      </c>
-      <c r="BS67" t="n">
-        <v>48983</v>
       </c>
     </row>
     <row r="68">
@@ -15039,10 +11855,10 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>-82910</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>-66025</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -15169,54 +11985,6 @@
       </c>
       <c r="BC68" t="n">
         <v>2696</v>
-      </c>
-      <c r="BD68" t="n">
-        <v>-371688.992</v>
-      </c>
-      <c r="BE68" t="n">
-        <v>-241379.008</v>
-      </c>
-      <c r="BF68" t="n">
-        <v>-322179.008</v>
-      </c>
-      <c r="BG68" t="n">
-        <v>-418249.952</v>
-      </c>
-      <c r="BH68" t="n">
-        <v>-355572</v>
-      </c>
-      <c r="BI68" t="n">
-        <v>-327468.992</v>
-      </c>
-      <c r="BJ68" t="n">
-        <v>-453903.008</v>
-      </c>
-      <c r="BK68" t="n">
-        <v>-625815.936</v>
-      </c>
-      <c r="BL68" t="n">
-        <v>-878632</v>
-      </c>
-      <c r="BM68" t="n">
-        <v>-704862.976</v>
-      </c>
-      <c r="BN68" t="n">
-        <v>-742595.968</v>
-      </c>
-      <c r="BO68" t="n">
-        <v>-781082.176</v>
-      </c>
-      <c r="BP68" t="n">
-        <v>-838118.976</v>
-      </c>
-      <c r="BQ68" t="n">
-        <v>-829217.024</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>-774489.9840000001</v>
-      </c>
-      <c r="BS68" t="n">
-        <v>-770650.944</v>
       </c>
     </row>
     <row r="69">
@@ -15254,10 +12022,10 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>67977</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>73151</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -15384,54 +12152,6 @@
       </c>
       <c r="BC69" t="n">
         <v>5421</v>
-      </c>
-      <c r="BD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG69" t="n">
-        <v>459726.016</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK69" t="n">
-        <v>1643073.024</v>
-      </c>
-      <c r="BL69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO69" t="n">
-        <v>2221789.952</v>
-      </c>
-      <c r="BP69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS69" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -15469,10 +12189,10 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>-150887.008</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>-139176</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -15599,54 +12319,6 @@
       </c>
       <c r="BC70" t="n">
         <v>-2725</v>
-      </c>
-      <c r="BD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>-1813223.04</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>-3405832.96</v>
-      </c>
-      <c r="BL70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO70" t="n">
-        <v>-5328963.072</v>
-      </c>
-      <c r="BP70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS70" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -15815,22 +12487,6 @@
       <c r="BC71" t="n">
         <v>0</v>
       </c>
-      <c r="BD71" t="inlineStr"/>
-      <c r="BE71" t="inlineStr"/>
-      <c r="BF71" t="inlineStr"/>
-      <c r="BG71" t="inlineStr"/>
-      <c r="BH71" t="inlineStr"/>
-      <c r="BI71" t="inlineStr"/>
-      <c r="BJ71" t="inlineStr"/>
-      <c r="BK71" t="inlineStr"/>
-      <c r="BL71" t="inlineStr"/>
-      <c r="BM71" t="inlineStr"/>
-      <c r="BN71" t="inlineStr"/>
-      <c r="BO71" t="inlineStr"/>
-      <c r="BP71" t="inlineStr"/>
-      <c r="BQ71" t="inlineStr"/>
-      <c r="BR71" t="inlineStr"/>
-      <c r="BS71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15998,22 +12654,6 @@
       <c r="BC72" t="n">
         <v>0</v>
       </c>
-      <c r="BD72" t="inlineStr"/>
-      <c r="BE72" t="inlineStr"/>
-      <c r="BF72" t="inlineStr"/>
-      <c r="BG72" t="inlineStr"/>
-      <c r="BH72" t="inlineStr"/>
-      <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
-      <c r="BL72" t="inlineStr"/>
-      <c r="BM72" t="inlineStr"/>
-      <c r="BN72" t="inlineStr"/>
-      <c r="BO72" t="inlineStr"/>
-      <c r="BP72" t="inlineStr"/>
-      <c r="BQ72" t="inlineStr"/>
-      <c r="BR72" t="inlineStr"/>
-      <c r="BS72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16181,22 +12821,6 @@
       <c r="BC73" t="n">
         <v>0</v>
       </c>
-      <c r="BD73" t="inlineStr"/>
-      <c r="BE73" t="inlineStr"/>
-      <c r="BF73" t="inlineStr"/>
-      <c r="BG73" t="inlineStr"/>
-      <c r="BH73" t="inlineStr"/>
-      <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
-      <c r="BL73" t="inlineStr"/>
-      <c r="BM73" t="inlineStr"/>
-      <c r="BN73" t="inlineStr"/>
-      <c r="BO73" t="inlineStr"/>
-      <c r="BP73" t="inlineStr"/>
-      <c r="BQ73" t="inlineStr"/>
-      <c r="BR73" t="inlineStr"/>
-      <c r="BS73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16233,10 +12857,10 @@
         <v>-58576</v>
       </c>
       <c r="L74" t="n">
-        <v>262744.992</v>
+        <v>-82383.992</v>
       </c>
       <c r="M74" t="n">
-        <v>286031.008</v>
+        <v>-9224</v>
       </c>
       <c r="N74" t="n">
         <v>-8702</v>
@@ -16363,54 +12987,6 @@
       </c>
       <c r="BC74" t="n">
         <v>1946</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>491014.016</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>-105139</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>286008</v>
-      </c>
-      <c r="BG74" t="n">
-        <v>9473.016</v>
-      </c>
-      <c r="BH74" t="n">
-        <v>1416105.984</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>4044</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>453670.016</v>
-      </c>
-      <c r="BK74" t="n">
-        <v>6421.024</v>
-      </c>
-      <c r="BL74" t="n">
-        <v>5547929.088</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>629233.9840000001</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>953289.9840000001</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>-125449.28</v>
-      </c>
-      <c r="BP74" t="n">
-        <v>964230.0159999999</v>
-      </c>
-      <c r="BQ74" t="n">
-        <v>484656.992</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>486678.016</v>
-      </c>
-      <c r="BS74" t="n">
-        <v>1075761.92</v>
       </c>
     </row>
     <row r="75">
@@ -16448,10 +13024,10 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>-102723</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>-105539</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -16578,54 +13154,6 @@
       </c>
       <c r="BC75" t="n">
         <v>0</v>
-      </c>
-      <c r="BD75" t="n">
-        <v>-235738</v>
-      </c>
-      <c r="BE75" t="n">
-        <v>-115817</v>
-      </c>
-      <c r="BF75" t="n">
-        <v>-209864.992</v>
-      </c>
-      <c r="BG75" t="n">
-        <v>-179372</v>
-      </c>
-      <c r="BH75" t="n">
-        <v>-217251.008</v>
-      </c>
-      <c r="BI75" t="n">
-        <v>-79630</v>
-      </c>
-      <c r="BJ75" t="n">
-        <v>-203160.992</v>
-      </c>
-      <c r="BK75" t="n">
-        <v>-196180.976</v>
-      </c>
-      <c r="BL75" t="n">
-        <v>-280835.008</v>
-      </c>
-      <c r="BM75" t="n">
-        <v>-359955.008</v>
-      </c>
-      <c r="BN75" t="n">
-        <v>-550068.992</v>
-      </c>
-      <c r="BO75" t="n">
-        <v>-90049.024</v>
-      </c>
-      <c r="BP75" t="n">
-        <v>-403756.992</v>
-      </c>
-      <c r="BQ75" t="n">
-        <v>-301647.008</v>
-      </c>
-      <c r="BR75" t="n">
-        <v>-360031.008</v>
-      </c>
-      <c r="BS75" t="n">
-        <v>1065435.008</v>
       </c>
     </row>
     <row r="76">
@@ -16663,10 +13191,10 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>-2444</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>3149</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -16793,54 +13321,6 @@
       </c>
       <c r="BC76" t="n">
         <v>0</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>17915</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>30750</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>15400</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>81483.992</v>
-      </c>
-      <c r="BH76" t="n">
-        <v>-354496.992</v>
-      </c>
-      <c r="BI76" t="n">
-        <v>29951</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>-85919</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>32042.976</v>
-      </c>
-      <c r="BL76" t="n">
-        <v>-1828701.056</v>
-      </c>
-      <c r="BM76" t="n">
-        <v>18928</v>
-      </c>
-      <c r="BN76" t="n">
-        <v>237990</v>
-      </c>
-      <c r="BO76" t="n">
-        <v>59867.024</v>
-      </c>
-      <c r="BP76" t="n">
-        <v>62911</v>
-      </c>
-      <c r="BQ76" t="n">
-        <v>80172</v>
-      </c>
-      <c r="BR76" t="n">
-        <v>125461</v>
-      </c>
-      <c r="BS76" t="n">
-        <v>-268544</v>
       </c>
     </row>
     <row r="77">
@@ -17009,22 +13489,6 @@
       <c r="BC77" t="n">
         <v>0</v>
       </c>
-      <c r="BD77" t="inlineStr"/>
-      <c r="BE77" t="inlineStr"/>
-      <c r="BF77" t="inlineStr"/>
-      <c r="BG77" t="inlineStr"/>
-      <c r="BH77" t="inlineStr"/>
-      <c r="BI77" t="inlineStr"/>
-      <c r="BJ77" t="inlineStr"/>
-      <c r="BK77" t="inlineStr"/>
-      <c r="BL77" t="inlineStr"/>
-      <c r="BM77" t="inlineStr"/>
-      <c r="BN77" t="inlineStr"/>
-      <c r="BO77" t="inlineStr"/>
-      <c r="BP77" t="inlineStr"/>
-      <c r="BQ77" t="inlineStr"/>
-      <c r="BR77" t="inlineStr"/>
-      <c r="BS77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17192,22 +13656,6 @@
       <c r="BC78" t="n">
         <v>0</v>
       </c>
-      <c r="BD78" t="inlineStr"/>
-      <c r="BE78" t="inlineStr"/>
-      <c r="BF78" t="inlineStr"/>
-      <c r="BG78" t="inlineStr"/>
-      <c r="BH78" t="inlineStr"/>
-      <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
-      <c r="BL78" t="inlineStr"/>
-      <c r="BM78" t="inlineStr"/>
-      <c r="BN78" t="inlineStr"/>
-      <c r="BO78" t="inlineStr"/>
-      <c r="BP78" t="inlineStr"/>
-      <c r="BQ78" t="inlineStr"/>
-      <c r="BR78" t="inlineStr"/>
-      <c r="BS78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17225,12 +13673,8 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>-1637</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-1734</v>
-      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
       <c r="N79" t="n">
         <v>0</v>
       </c>
@@ -17356,54 +13800,6 @@
       </c>
       <c r="BC79" t="n">
         <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>16491</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>48079</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>26752</v>
-      </c>
-      <c r="BG79" t="n">
-        <v>13597</v>
-      </c>
-      <c r="BH79" t="n">
-        <v>-155418</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>1596</v>
-      </c>
-      <c r="BJ79" t="n">
-        <v>19323</v>
-      </c>
-      <c r="BK79" t="n">
-        <v>24534</v>
-      </c>
-      <c r="BL79" t="n">
-        <v>14080</v>
-      </c>
-      <c r="BM79" t="n">
-        <v>3063</v>
-      </c>
-      <c r="BN79" t="n">
-        <v>-34759</v>
-      </c>
-      <c r="BO79" t="n">
-        <v>-61476</v>
-      </c>
-      <c r="BP79" t="n">
-        <v>5945</v>
-      </c>
-      <c r="BQ79" t="n">
-        <v>7032</v>
-      </c>
-      <c r="BR79" t="n">
-        <v>-576</v>
-      </c>
-      <c r="BS79" t="n">
-        <v>-162061.984</v>
       </c>
     </row>
     <row r="80">
@@ -17441,10 +13837,10 @@
         <v>-58576</v>
       </c>
       <c r="L80" t="n">
-        <v>155940.992</v>
+        <v>-82383.992</v>
       </c>
       <c r="M80" t="n">
-        <v>181907.008</v>
+        <v>-9224</v>
       </c>
       <c r="N80" t="n">
         <v>-8702</v>
@@ -17571,54 +13967,6 @@
       </c>
       <c r="BC80" t="n">
         <v>1446</v>
-      </c>
-      <c r="BD80" t="n">
-        <v>289681.984</v>
-      </c>
-      <c r="BE80" t="n">
-        <v>-142127.008</v>
-      </c>
-      <c r="BF80" t="n">
-        <v>118295</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>-74817.976</v>
-      </c>
-      <c r="BH80" t="n">
-        <v>688940.032</v>
-      </c>
-      <c r="BI80" t="n">
-        <v>-44039</v>
-      </c>
-      <c r="BJ80" t="n">
-        <v>183912.992</v>
-      </c>
-      <c r="BK80" t="n">
-        <v>-133183.048</v>
-      </c>
-      <c r="BL80" t="n">
-        <v>3452473.088</v>
-      </c>
-      <c r="BM80" t="n">
-        <v>291270.016</v>
-      </c>
-      <c r="BN80" t="n">
-        <v>606451.968</v>
-      </c>
-      <c r="BO80" t="n">
-        <v>-217107.072</v>
-      </c>
-      <c r="BP80" t="n">
-        <v>629329.024</v>
-      </c>
-      <c r="BQ80" t="n">
-        <v>270214.016</v>
-      </c>
-      <c r="BR80" t="n">
-        <v>251532</v>
-      </c>
-      <c r="BS80" t="n">
-        <v>553764.8639999999</v>
       </c>
     </row>
   </sheetData>
